--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ntf3</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntf3</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H2">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I2">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J2">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.573052</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N2">
-        <v>19.719156</v>
+        <v>1.176655</v>
       </c>
       <c r="O2">
-        <v>0.9563653689351861</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P2">
-        <v>0.956365368935186</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q2">
-        <v>43.06212978134533</v>
+        <v>1.490030780621667</v>
       </c>
       <c r="R2">
-        <v>387.5591680321079</v>
+        <v>13.410277025595</v>
       </c>
       <c r="S2">
-        <v>0.6169654540326511</v>
+        <v>0.05853502190830834</v>
       </c>
       <c r="T2">
-        <v>0.6169654540326509</v>
+        <v>0.05853502190830835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H3">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I3">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J3">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.034619</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N3">
-        <v>0.103857</v>
+        <v>17.362741</v>
       </c>
       <c r="O3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q3">
-        <v>0.2267999509056666</v>
+        <v>21.98691929746767</v>
       </c>
       <c r="R3">
-        <v>2.041199558151</v>
+        <v>197.882273677209</v>
       </c>
       <c r="S3">
-        <v>0.003249438320761246</v>
+        <v>0.863743769263959</v>
       </c>
       <c r="T3">
-        <v>0.003249438320761245</v>
+        <v>0.8637437692639589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,108 +664,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H4">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I4">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J4">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2652796666666666</v>
+        <v>0.034619</v>
       </c>
       <c r="N4">
-        <v>0.795839</v>
+        <v>0.103857</v>
       </c>
       <c r="O4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q4">
-        <v>1.737930482575222</v>
+        <v>0.131516992477</v>
       </c>
       <c r="R4">
-        <v>15.641374343177</v>
+        <v>1.183652932293</v>
       </c>
       <c r="S4">
-        <v>0.0248999079865229</v>
+        <v>0.005166571144754563</v>
       </c>
       <c r="T4">
-        <v>0.0248999079865229</v>
+        <v>0.005166571144754563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.798983</v>
+      </c>
+      <c r="H5">
+        <v>11.396949</v>
+      </c>
+      <c r="I5">
+        <v>0.9354058228349695</v>
+      </c>
+      <c r="J5">
+        <v>0.9354058228349694</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2623376666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.787013</v>
-      </c>
-      <c r="I5">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="J5">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>6.573052</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N5">
-        <v>19.719156</v>
+        <v>0.160019</v>
       </c>
       <c r="O5">
-        <v>0.9563653689351861</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P5">
-        <v>0.956365368935186</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q5">
-        <v>1.724359124558666</v>
+        <v>0.2026364868923333</v>
       </c>
       <c r="R5">
-        <v>15.519232121028</v>
+        <v>1.823728382031</v>
       </c>
       <c r="S5">
-        <v>0.02470546662695617</v>
+        <v>0.007960460517947566</v>
       </c>
       <c r="T5">
-        <v>0.02470546662695616</v>
+        <v>0.007960460517947566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,40 @@
         <v>0.787013</v>
       </c>
       <c r="I6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.034619</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N6">
-        <v>0.103857</v>
+        <v>1.176655</v>
       </c>
       <c r="O6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q6">
-        <v>0.009081867682333331</v>
+        <v>0.1028936423905555</v>
       </c>
       <c r="R6">
-        <v>0.08173680914099998</v>
+        <v>0.926042781515</v>
       </c>
       <c r="S6">
-        <v>0.0001301189385324497</v>
+        <v>0.004042118921223871</v>
       </c>
       <c r="T6">
-        <v>0.0001301189385324497</v>
+        <v>0.004042118921223872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,134 +856,134 @@
         <v>0.787013</v>
       </c>
       <c r="I7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2652796666666666</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N7">
-        <v>0.795839</v>
+        <v>17.362741</v>
       </c>
       <c r="O7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q7">
-        <v>0.06959284876744443</v>
+        <v>1.518300320292555</v>
       </c>
       <c r="R7">
-        <v>0.6263356389069999</v>
+        <v>13.664702882633</v>
       </c>
       <c r="S7">
-        <v>0.0009970798879490668</v>
+        <v>0.05964557488848429</v>
       </c>
       <c r="T7">
-        <v>0.0009970798879490668</v>
+        <v>0.05964557488848429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.341617</v>
+        <v>0.2623376666666666</v>
       </c>
       <c r="H8">
-        <v>10.024851</v>
+        <v>0.787013</v>
       </c>
       <c r="I8">
-        <v>0.3290525342066272</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J8">
-        <v>0.3290525342066272</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.573052</v>
+        <v>0.034619</v>
       </c>
       <c r="N8">
-        <v>19.719156</v>
+        <v>0.103857</v>
       </c>
       <c r="O8">
-        <v>0.9563653689351861</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P8">
-        <v>0.956365368935186</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q8">
-        <v>21.964622305084</v>
+        <v>0.009081867682333333</v>
       </c>
       <c r="R8">
-        <v>197.681600745756</v>
+        <v>0.081736809141</v>
       </c>
       <c r="S8">
-        <v>0.3146944482755789</v>
+        <v>0.0003567760684325887</v>
       </c>
       <c r="T8">
-        <v>0.3146944482755789</v>
+        <v>0.0003567760684325887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3.341617</v>
+        <v>0.2623376666666666</v>
       </c>
       <c r="H9">
-        <v>10.024851</v>
+        <v>0.787013</v>
       </c>
       <c r="I9">
-        <v>0.3290525342066272</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J9">
-        <v>0.3290525342066272</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,90 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.034619</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N9">
-        <v>0.103857</v>
+        <v>0.160019</v>
       </c>
       <c r="O9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q9">
-        <v>0.115683438923</v>
+        <v>0.01399300369411111</v>
       </c>
       <c r="R9">
-        <v>1.041150950307</v>
+        <v>0.125937033247</v>
       </c>
       <c r="S9">
-        <v>0.001657435100901722</v>
+        <v>0.0005497072868898043</v>
       </c>
       <c r="T9">
-        <v>0.001657435100901722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.341617</v>
-      </c>
-      <c r="H10">
-        <v>10.024851</v>
-      </c>
-      <c r="I10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2652796666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.795839</v>
-      </c>
-      <c r="O10">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="P10">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="Q10">
-        <v>0.8864630438876665</v>
-      </c>
-      <c r="R10">
-        <v>7.978167394989</v>
-      </c>
-      <c r="S10">
-        <v>0.01270065083014651</v>
-      </c>
-      <c r="T10">
-        <v>0.01270065083014651</v>
+        <v>0.0005497072868898044</v>
       </c>
     </row>
   </sheetData>
